--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>0.02609002433904746</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.27357847269145</v>
+        <v>-2.473959982068227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04520636767645866</v>
+        <v>-0.1620440683618547</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04142668924265094</v>
+        <v>0.05943154762025361</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05373846139460359</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.347702742457318</v>
+        <v>-2.584251328123901</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04248497762299337</v>
+        <v>-0.2249616556131541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01606740734482019</v>
+        <v>0.04611697924684351</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.08527922675199347</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.500032871157853</v>
+        <v>-2.775037565414078</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08695978345078501</v>
+        <v>-0.2477867170990967</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05322377497231188</v>
+        <v>0.06313742565217481</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1157901074026126</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.654675819064616</v>
+        <v>-2.959945997142432</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1342560823292132</v>
+        <v>-0.2469511257719518</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07163423059995201</v>
+        <v>0.09487281830472977</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1437760483816016</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.835929606097896</v>
+        <v>-3.143361343054109</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1291986200776183</v>
+        <v>-0.2330296863251774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07060163489421754</v>
+        <v>0.08979034930538819</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.169690065163647</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.770682121861419</v>
+        <v>-3.016698201232824</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.12896197085504</v>
+        <v>-0.1933488570166255</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07326515848957632</v>
+        <v>0.09965703609314153</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1976745676494231</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.577645887194719</v>
+        <v>-2.796767819285257</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1674125901585911</v>
+        <v>-0.2301045067594937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1151795173163796</v>
+        <v>0.1308142239441393</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2323543832014561</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.169313752842723</v>
+        <v>-2.33514935508849</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1955811666935234</v>
+        <v>-0.2610835977728811</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1149562863486898</v>
+        <v>0.147393087779505</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.276997973064281</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.804813567925225</v>
+        <v>-1.904776517240848</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2814305515491963</v>
+        <v>-0.3488877783975315</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1452803225552498</v>
+        <v>0.2101429468446987</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3327486758652535</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.312081830166186</v>
+        <v>-1.393402553997004</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4546199673945143</v>
+        <v>-0.4709353454975249</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1780385521827112</v>
+        <v>0.2810681826610234</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3995840342707187</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7483968002396909</v>
+        <v>-0.8226955073191091</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7815417195762107</v>
+        <v>-0.8219879993340814</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2432585899887345</v>
+        <v>0.3281699168435689</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4754448808012909</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.195717788925115</v>
+        <v>-0.26981827178459</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.114116826510685</v>
+        <v>-1.131115315771653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3204678385375944</v>
+        <v>0.3910295616305773</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5583356067979289</v>
       </c>
       <c r="E14" t="n">
-        <v>0.406484951579373</v>
+        <v>0.3856829969782038</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.516380250129038</v>
+        <v>-1.466844322525591</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4866736626341472</v>
+        <v>0.5825885684181933</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6468349682345715</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9137974530367518</v>
+        <v>0.9281391278298056</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.877344114962751</v>
+        <v>-1.809060445597422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5886029962116059</v>
+        <v>0.6642221815561836</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7384711066648089</v>
       </c>
       <c r="E16" t="n">
-        <v>1.468470295043617</v>
+        <v>1.50713621634606</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.281177474403054</v>
+        <v>-2.127651291255416</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7180800070750674</v>
+        <v>0.7806371312064088</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8297157440073347</v>
       </c>
       <c r="E17" t="n">
-        <v>1.961637516165855</v>
+        <v>2.051795990602753</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.685245043383228</v>
+        <v>-2.472770636748568</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8754120952456127</v>
+        <v>0.8608996426630694</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9179782607900792</v>
       </c>
       <c r="E18" t="n">
-        <v>2.339612678594747</v>
+        <v>2.422144704889587</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.091879158571158</v>
+        <v>-2.794508673098582</v>
       </c>
       <c r="G18" t="n">
-        <v>1.060402866265329</v>
+        <v>1.057045862860508</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.000518219902741</v>
       </c>
       <c r="E19" t="n">
-        <v>2.592235723697025</v>
+        <v>2.629090790510204</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.480493472324906</v>
+        <v>-3.107911533480158</v>
       </c>
       <c r="G19" t="n">
-        <v>1.201909342636292</v>
+        <v>1.177431396116362</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.074851158920874</v>
       </c>
       <c r="E20" t="n">
-        <v>2.891224938645691</v>
+        <v>2.964874080204372</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.883159748550252</v>
+        <v>-3.450255129973429</v>
       </c>
       <c r="G20" t="n">
-        <v>1.349426587276608</v>
+        <v>1.311416940622346</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.138239171313707</v>
       </c>
       <c r="E21" t="n">
-        <v>3.20120980355477</v>
+        <v>3.27586653407144</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.207340517210642</v>
+        <v>-3.712001978479181</v>
       </c>
       <c r="G21" t="n">
-        <v>1.537588335894737</v>
+        <v>1.500996144893237</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.188468484130152</v>
       </c>
       <c r="E22" t="n">
-        <v>3.343274967265635</v>
+        <v>3.488139666882773</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.459933066279083</v>
+        <v>-3.914290404851811</v>
       </c>
       <c r="G22" t="n">
-        <v>1.609806603545768</v>
+        <v>1.543834533545314</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.22233189263605</v>
       </c>
       <c r="E23" t="n">
-        <v>3.518499078488584</v>
+        <v>3.67011072063191</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.720457023827955</v>
+        <v>-4.111374378089749</v>
       </c>
       <c r="G23" t="n">
-        <v>1.697080153181647</v>
+        <v>1.663518658022909</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.238261765763834</v>
       </c>
       <c r="E24" t="n">
-        <v>3.605057801091315</v>
+        <v>3.762789387305131</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.944270770724377</v>
+        <v>-4.283828839519586</v>
       </c>
       <c r="G24" t="n">
-        <v>1.774064950921464</v>
+        <v>1.70681936654796</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.23612036282222</v>
       </c>
       <c r="E25" t="n">
-        <v>3.681262510285571</v>
+        <v>3.852862472847284</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.058750137106943</v>
+        <v>-4.354872399947199</v>
       </c>
       <c r="G25" t="n">
-        <v>1.810762048279364</v>
+        <v>1.729201015701907</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.217579329263319</v>
       </c>
       <c r="E26" t="n">
-        <v>3.679873110983939</v>
+        <v>3.793400086229762</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.122372182739886</v>
+        <v>-4.391732956046468</v>
       </c>
       <c r="G26" t="n">
-        <v>1.792479675993841</v>
+        <v>1.696383623768801</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.185712278789572</v>
       </c>
       <c r="E27" t="n">
-        <v>3.776921249385383</v>
+        <v>3.916416207364431</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.193618846752856</v>
+        <v>-4.378653207133606</v>
       </c>
       <c r="G27" t="n">
-        <v>1.767473538167848</v>
+        <v>1.659802411339483</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.143775343306673</v>
       </c>
       <c r="E28" t="n">
-        <v>3.729958577117136</v>
+        <v>3.817272381517681</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.124473054510944</v>
+        <v>-4.275409494497755</v>
       </c>
       <c r="G28" t="n">
-        <v>1.718465801870465</v>
+        <v>1.607229078765831</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.094344020635123</v>
       </c>
       <c r="E29" t="n">
-        <v>3.68312886755642</v>
+        <v>3.74050410561811</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.109196676280774</v>
+        <v>-4.270233402674533</v>
       </c>
       <c r="G29" t="n">
-        <v>1.692867431067349</v>
+        <v>1.577552778317977</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.038778577236059</v>
       </c>
       <c r="E30" t="n">
-        <v>3.618826150448226</v>
+        <v>3.652798732143093</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.988310398149309</v>
+        <v>-4.088903680516997</v>
       </c>
       <c r="G30" t="n">
-        <v>1.633431271038927</v>
+        <v>1.499205417786305</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9773159679163296</v>
       </c>
       <c r="E31" t="n">
-        <v>3.514748066326584</v>
+        <v>3.50707404437174</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.918306142554874</v>
+        <v>-4.064096071871285</v>
       </c>
       <c r="G31" t="n">
-        <v>1.551063923326809</v>
+        <v>1.382224461748058</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9107010285018414</v>
       </c>
       <c r="E32" t="n">
-        <v>3.370160270696689</v>
+        <v>3.313777983496745</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.780160329112793</v>
+        <v>-3.969903277118037</v>
       </c>
       <c r="G32" t="n">
-        <v>1.498370436379837</v>
+        <v>1.343035838425642</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8396227945490328</v>
       </c>
       <c r="E33" t="n">
-        <v>3.204716847446071</v>
+        <v>3.113948452332425</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.62727090315168</v>
+        <v>-3.890273558363503</v>
       </c>
       <c r="G33" t="n">
-        <v>1.372873157932157</v>
+        <v>1.198175408253241</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7649128897772218</v>
       </c>
       <c r="E34" t="n">
-        <v>2.984074383108401</v>
+        <v>2.870913360268627</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.419228485114609</v>
+        <v>-3.680557213029097</v>
       </c>
       <c r="G34" t="n">
-        <v>1.265703385900079</v>
+        <v>1.089501571832302</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6883180429693559</v>
       </c>
       <c r="E35" t="n">
-        <v>2.789427957855087</v>
+        <v>2.642387061263311</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.298141848040832</v>
+        <v>-3.615505818290194</v>
       </c>
       <c r="G35" t="n">
-        <v>1.179201995840962</v>
+        <v>1.038275554033586</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6105212755256841</v>
       </c>
       <c r="E36" t="n">
-        <v>2.596330731120712</v>
+        <v>2.428661097399964</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.064408656218118</v>
+        <v>-3.412414431346626</v>
       </c>
       <c r="G36" t="n">
-        <v>1.118479513105279</v>
+        <v>0.9588644918416657</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5324420587256712</v>
       </c>
       <c r="E37" t="n">
-        <v>2.374095153975376</v>
+        <v>2.137944236590032</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.986152173867282</v>
+        <v>-3.353121297716902</v>
       </c>
       <c r="G37" t="n">
-        <v>1.069854197072217</v>
+        <v>0.9249095978464246</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4552155916228789</v>
       </c>
       <c r="E38" t="n">
-        <v>2.125573215503551</v>
+        <v>1.898038647518628</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.821990193958512</v>
+        <v>-3.251407571098674</v>
       </c>
       <c r="G38" t="n">
-        <v>1.011871478016486</v>
+        <v>0.8970825768904712</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3790175616221811</v>
       </c>
       <c r="E39" t="n">
-        <v>1.925652806158396</v>
+        <v>1.680359177828599</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.703486875911102</v>
+        <v>-3.11929021362557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9109064290289659</v>
+        <v>0.7796484497894001</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3040466684989996</v>
       </c>
       <c r="E40" t="n">
-        <v>1.710420948144158</v>
+        <v>1.427126212049573</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.607614054653751</v>
+        <v>-3.059967498843023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.806389811940742</v>
+        <v>0.6933526029983477</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2302783236376282</v>
       </c>
       <c r="E41" t="n">
-        <v>1.466655171109615</v>
+        <v>1.123287517800084</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.46505302543269</v>
+        <v>-2.91166589621241</v>
       </c>
       <c r="G41" t="n">
-        <v>0.759352119429255</v>
+        <v>0.6466595156692233</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1582701780100797</v>
       </c>
       <c r="E42" t="n">
-        <v>1.222503924207367</v>
+        <v>0.855037085118167</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.405142347117759</v>
+        <v>-2.84654649531805</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7050423426889009</v>
+        <v>0.6317780610772474</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.08889082031360798</v>
       </c>
       <c r="E43" t="n">
-        <v>1.044680940980794</v>
+        <v>0.6690905683979866</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.288532222850974</v>
+        <v>-2.726380533505824</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6447437548235576</v>
+        <v>0.5584832834317566</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.02353466945263908</v>
       </c>
       <c r="E44" t="n">
-        <v>0.822452072962902</v>
+        <v>0.4685907344099208</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.22939492395416</v>
+        <v>-2.641877243583735</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5953316411174905</v>
+        <v>0.5362455755575224</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.03663551787013843</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7387575378581801</v>
+        <v>0.4142894965590412</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.121477694132726</v>
+        <v>-2.558634659700483</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5388883618498718</v>
+        <v>0.4746515161747663</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.09058180949215994</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5390701182115426</v>
+        <v>0.2307039827785525</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.057863882428919</v>
+        <v>-2.499929184642805</v>
       </c>
       <c r="G46" t="n">
-        <v>0.433671555824741</v>
+        <v>0.3684350501604455</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1376515522992685</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3924110319634116</v>
+        <v>0.1053622341034429</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.996216759947286</v>
+        <v>-2.426941197097719</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3761456673558944</v>
+        <v>0.3405696042018569</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1780929067697931</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2910653924736008</v>
+        <v>0.03541165152856159</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.918296953810015</v>
+        <v>-2.324262271008537</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3291945835805056</v>
+        <v>0.2749994719273802</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2124017817465319</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1825629437628283</v>
+        <v>-0.06933917509953362</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.836990258154761</v>
+        <v>-2.226456001205895</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2657914994705148</v>
+        <v>0.2247060228434121</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2413767878088912</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04330463500635821</v>
+        <v>-0.151178331505588</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.764868967891334</v>
+        <v>-2.171154493445148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2228305167624118</v>
+        <v>0.1756702301948985</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2658868170476955</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01661214251534076</v>
+        <v>-0.2138019369906949</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.647017655047367</v>
+        <v>-2.062446501466312</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1578215115105433</v>
+        <v>0.1509885701689348</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2866194762503707</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.120029072623388</v>
+        <v>-0.3141210799815387</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.564322779931835</v>
+        <v>-2.010844772530719</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1141426521659079</v>
+        <v>0.08288726708595368</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3042587402520233</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2286041018946935</v>
+        <v>-0.4197605610356558</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.461928076878018</v>
+        <v>-1.955371877059807</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1116163607228174</v>
+        <v>0.06466710670945894</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3195470500300708</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2927275023239238</v>
+        <v>-0.5282447121261259</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.400627999261454</v>
+        <v>-1.921120561615666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06129668504974917</v>
+        <v>0.0003192554711853322</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3330457337506882</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2759979880814014</v>
+        <v>-0.5177138217213939</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.346574389205334</v>
+        <v>-1.899662332366316</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03362397402501303</v>
+        <v>-0.01085022188210185</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3453984510099848</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3220012551251236</v>
+        <v>-0.5563760834997766</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.301847076217369</v>
+        <v>-1.890308588867707</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03431935960269038</v>
+        <v>-0.08170470689992375</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3573303896098183</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.437529380111357</v>
+        <v>-0.7060103628090846</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.268045272311991</v>
+        <v>-1.861663664284235</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04159266367291097</v>
+        <v>-0.08586436591534551</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3693945158153121</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4576329755376498</v>
+        <v>-0.7591002981959426</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.24280065550139</v>
+        <v>-1.820332389624403</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07712298277619234</v>
+        <v>-0.118213338768709</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3822200105553767</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5194941801768215</v>
+        <v>-0.8046680818764668</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.199728667230118</v>
+        <v>-1.839479019508878</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09456000500374256</v>
+        <v>-0.1251341086877692</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3963738416330687</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6092781633181962</v>
+        <v>-0.944896774429643</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.260227309077435</v>
+        <v>-1.871289432404673</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1337047140374329</v>
+        <v>-0.1624411267224177</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4123465017345659</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6554406196585496</v>
+        <v>-1.034739309955985</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.223632068472551</v>
+        <v>-1.829886187104984</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1056093279837104</v>
+        <v>-0.1340139438205442</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4303565422730851</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6941821711249095</v>
+        <v>-1.025209299381797</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.179568349180888</v>
+        <v>-1.765117490599755</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1412994463042997</v>
+        <v>-0.1809717367233772</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4504206922145179</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7732772944062745</v>
+        <v>-1.126678752768988</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.212175318480516</v>
+        <v>-1.794847464067162</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1753818137209812</v>
+        <v>-0.235124763849807</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4720860635749965</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8275950001154262</v>
+        <v>-1.192959442631876</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.276812882040245</v>
+        <v>-1.818928352226529</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1751433347363727</v>
+        <v>-0.2153968795603911</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4953893559069596</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8766167645883747</v>
+        <v>-1.245027150964504</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.324906957163859</v>
+        <v>-1.87129187208738</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1989613470840611</v>
+        <v>-0.2466547043230523</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5202723322383942</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9260331477391791</v>
+        <v>-1.24664283083721</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.372797928702117</v>
+        <v>-1.918011186005604</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2228531598336361</v>
+        <v>-0.2943041472733176</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.546842950686442</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9644368031506205</v>
+        <v>-1.261867670770195</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.382260848001863</v>
+        <v>-1.96696402944208</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.21438990052308</v>
+        <v>-0.3050210634844577</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5751911102064721</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.034675878205604</v>
+        <v>-1.308251528316208</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.45390213069269</v>
+        <v>-2.022014859804683</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2560450430622654</v>
+        <v>-0.3433594573834871</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6051228056589657</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.012892561235547</v>
+        <v>-1.249624123105154</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.547989104208522</v>
+        <v>-2.135137457641822</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2337914772504357</v>
+        <v>-0.3079944267836044</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.635597208087202</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.037407102996081</v>
+        <v>-1.272857831444518</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.568389731004391</v>
+        <v>-2.159425108910606</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2370691909672798</v>
+        <v>-0.3105359662436136</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.665957146864178</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.069987235785932</v>
+        <v>-1.320621329561335</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.593851479575915</v>
+        <v>-2.220771540498603</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.25340713613533</v>
+        <v>-0.3172890079765681</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.695098949283703</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.055367437164281</v>
+        <v>-1.267386233053411</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.679072646134538</v>
+        <v>-2.3712743468516</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2926256455709069</v>
+        <v>-0.3441572336286736</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7219580145390211</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.038651341176647</v>
+        <v>-1.281108228438889</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.701895267937774</v>
+        <v>-2.413380220770903</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3234217603812699</v>
+        <v>-0.3751656008345448</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7452691168554435</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.019244885083878</v>
+        <v>-1.217510579633015</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.733003662134632</v>
+        <v>-2.470125410773512</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3428910383037446</v>
+        <v>-0.3887808601015917</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7636918697552789</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9665087036895337</v>
+        <v>-1.166191853891434</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.77448741696365</v>
+        <v>-2.567697471036282</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3162509229847429</v>
+        <v>-0.3891638902865895</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7756507835396994</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8689677493812773</v>
+        <v>-1.040192000806113</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.782478597670404</v>
+        <v>-2.56933144852929</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.300589989767883</v>
+        <v>-0.3596913033447698</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7802942262774653</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8199520841150963</v>
+        <v>-0.9568371915183397</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.780814734064235</v>
+        <v>-2.593658744642063</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.274856216574529</v>
+        <v>-0.3161624844866144</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.776782985445501</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6432641632679514</v>
+        <v>-0.774358073845472</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.78641807532152</v>
+        <v>-2.620225669479855</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2944633365699488</v>
+        <v>-0.3231808417139543</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7647574647748683</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5485392127242408</v>
+        <v>-0.6081748168139589</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.800329756037466</v>
+        <v>-2.621478446549895</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2721195024979605</v>
+        <v>-0.3069923271117074</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7438230677079334</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3981346036001999</v>
+        <v>-0.4709420546249691</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.80605142190604</v>
+        <v>-2.697666687885879</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2398394506810695</v>
+        <v>-0.2490346148037232</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7142137639824874</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1618976873994352</v>
+        <v>-0.1706439499040023</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.775835341659264</v>
+        <v>-2.712621942879742</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2354529011738974</v>
+        <v>-0.2326454362988261</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6765798764799625</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03153011634173696</v>
+        <v>0.1433334557550699</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.730666446101333</v>
+        <v>-2.68775242728534</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1629266235811091</v>
+        <v>-0.1432725396935797</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6323835454433981</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2058478854390389</v>
+        <v>0.2818482712065842</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.690386064767538</v>
+        <v>-2.669965920510013</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1317377198549204</v>
+        <v>-0.08928236138784161</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5831306276502446</v>
       </c>
       <c r="E84" t="n">
-        <v>0.441140034511521</v>
+        <v>0.5387639380318151</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.566201945536896</v>
+        <v>-2.598958955323004</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1057148442607878</v>
+        <v>-0.06832914645883884</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5310229881086983</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6204432952205615</v>
+        <v>0.7275557347090252</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.512787532350008</v>
+        <v>-2.543197567371989</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08225241566764351</v>
+        <v>-0.05149716554262268</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4783497242721801</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8545363402425569</v>
+        <v>0.9879607577259318</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.487969250092453</v>
+        <v>-2.533959098881287</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09467588993232469</v>
+        <v>-0.03750070585260824</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4270094883527607</v>
       </c>
       <c r="E87" t="n">
-        <v>1.00790211425221</v>
+        <v>1.145680145526212</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.357503557811983</v>
+        <v>-2.413607721183329</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.04466544404236768</v>
+        <v>0.001315255936314911</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3784823183086137</v>
       </c>
       <c r="E88" t="n">
-        <v>1.18807939129103</v>
+        <v>1.31467025751212</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.182886927583074</v>
+        <v>-2.248196013807902</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0149183927960114</v>
+        <v>0.02238435579389983</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3335503849098446</v>
       </c>
       <c r="E89" t="n">
-        <v>1.302063807044414</v>
+        <v>1.399226610533087</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.979103280671397</v>
+        <v>-2.039248168526199</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02584931515850554</v>
+        <v>0.05838004437353996</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2921763895206022</v>
       </c>
       <c r="E90" t="n">
-        <v>1.416926508572316</v>
+        <v>1.430639965068319</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.792848754009458</v>
+        <v>-1.840773881105614</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01705730860318229</v>
+        <v>0.05143365778605632</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2541173174448089</v>
       </c>
       <c r="E91" t="n">
-        <v>1.46904545024179</v>
+        <v>1.471936474249576</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.505252857302447</v>
+        <v>-1.488204354545985</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03161123579174444</v>
+        <v>0.04531493355691981</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2188338685047387</v>
       </c>
       <c r="E92" t="n">
-        <v>1.511239762659221</v>
+        <v>1.49776966451324</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.237288477417925</v>
+        <v>-1.248950770678024</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0626360708558879</v>
+        <v>0.04070820268544173</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1855484930004863</v>
       </c>
       <c r="E93" t="n">
-        <v>1.559275895318545</v>
+        <v>1.539873708670512</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9868995717545748</v>
+        <v>-0.9756605634441383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03289084937156187</v>
+        <v>0.06104844733431272</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1534360266393076</v>
       </c>
       <c r="E94" t="n">
-        <v>1.585481137195025</v>
+        <v>1.577969964060873</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7607781899776765</v>
+        <v>-0.7027058125824637</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03763115287124778</v>
+        <v>0.0571278772241762</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.121735477438637</v>
       </c>
       <c r="E95" t="n">
-        <v>1.55966502471031</v>
+        <v>1.574749582887643</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5416538182044319</v>
+        <v>-0.4801122119998762</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0231474425666962</v>
+        <v>-0.006174569974151241</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09001603706047785</v>
       </c>
       <c r="E96" t="n">
-        <v>1.475928405078892</v>
+        <v>1.504865481666527</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3414821215404566</v>
+        <v>-0.297317155416453</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.04761807003850503</v>
+        <v>-0.06094300706341985</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05854278375017048</v>
       </c>
       <c r="E97" t="n">
-        <v>1.413872025823161</v>
+        <v>1.418655023770219</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1751482141017867</v>
+        <v>-0.156356558051179</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06954593820895121</v>
+        <v>-0.0669720729530744</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02850487036325422</v>
       </c>
       <c r="E98" t="n">
-        <v>1.337805768622527</v>
+        <v>1.37147156021699</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06370289812570482</v>
+        <v>-0.04476608095403111</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1241838522733957</v>
+        <v>-0.1184414491018128</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.001170061807158403</v>
       </c>
       <c r="E99" t="n">
-        <v>1.268756648807879</v>
+        <v>1.299391744559581</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03441504114275527</v>
+        <v>0.08018714824999003</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1453895743625722</v>
+        <v>-0.1431011519834135</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02097610882545932</v>
       </c>
       <c r="E100" t="n">
-        <v>1.133519547073209</v>
+        <v>1.133941612181519</v>
       </c>
       <c r="F100" t="n">
-        <v>0.09496369648556523</v>
+        <v>0.1262520172820638</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1273023766936086</v>
+        <v>-0.114366569060459</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03612913792710187</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020951367131234</v>
+        <v>1.011400619254036</v>
       </c>
       <c r="F101" t="n">
-        <v>0.144180635575073</v>
+        <v>0.2000091148005297</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1838572714450722</v>
+        <v>-0.1878742090221349</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04141934671328158</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9087290122129753</v>
+        <v>0.8605440589085253</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1590395231020092</v>
+        <v>0.1835443061317159</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1735343639911114</v>
+        <v>-0.1698925276302487</v>
       </c>
     </row>
   </sheetData>
